--- a/подсистема обработки ТИ из ОИК/Описание.xlsx
+++ b/подсистема обработки ТИ из ОИК/Описание.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>Address</t>
   </si>
@@ -121,13 +121,166 @@
   </si>
   <si>
     <t>Сначала проходим по всем state. Ищем соответствие. Сначала проверяется состояние сетевых элементов с наиболее высоким напряжением (550-750 кВ) и состояние генераторов с наибольшей номинальной мощностью (300 МВт и выше). Затем более низкое напряжение (220-330 кВ) и мощность (150-300 МВт). И самое низкое напряжение (110 кВ) и мощность (ниже 150 МВт). На каждом шаге отсеивается часть схем. Остается наиболее похожая. Далее сравниваются все остальные значения (напряжение, перетоки, вырабатываемая мощность, токи). При чем при сравнении должны использоваться весовые коэффициенты в зависимости от базового напряжения узла и номинальной мощности генератора. Остается одна наиболее схожая схема.</t>
+  </si>
+  <si>
+    <t>FirstNode</t>
+  </si>
+  <si>
+    <t>LastNode</t>
+  </si>
+  <si>
+    <t>NominalVoltage</t>
+  </si>
+  <si>
+    <t>ActivePowerAtFirst</t>
+  </si>
+  <si>
+    <t>ActivePowerInTheEnd</t>
+  </si>
+  <si>
+    <t>ReactivePowerAtFirst</t>
+  </si>
+  <si>
+    <t>ReactivePowerInTheEnd</t>
+  </si>
+  <si>
+    <t>CurrentAtFirst</t>
+  </si>
+  <si>
+    <t>CurrentInTheEnd</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>CalculatedVoltage</t>
+  </si>
+  <si>
+    <t>ActiveLoad</t>
+  </si>
+  <si>
+    <t>ReactiveLoad</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>ConnectionNode</t>
+  </si>
+  <si>
+    <t>NominalActivePower</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
+    <t>LineSegments</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Types:</t>
+  </si>
+  <si>
+    <t>NetworkElementState</t>
+  </si>
+  <si>
+    <t>GeneratorState</t>
+  </si>
+  <si>
+    <t>NodeVoltage</t>
+  </si>
+  <si>
+    <t>NodeActiveLoad</t>
+  </si>
+  <si>
+    <t>NodeReactiveLoad</t>
+  </si>
+  <si>
+    <t>LineSegmentActivePowerAtFirst</t>
+  </si>
+  <si>
+    <t>LineSegmentActivePowerInTheEnd</t>
+  </si>
+  <si>
+    <t>LineSegmentReactivePowerAtFirst</t>
+  </si>
+  <si>
+    <t>LineSegmentReactivePowerInTheEnd</t>
+  </si>
+  <si>
+    <t>LineSegmentCurrentAtFirst</t>
+  </si>
+  <si>
+    <t>LineSegmentCurrentInTheEnd</t>
+  </si>
+  <si>
+    <t>TransformerActivePower</t>
+  </si>
+  <si>
+    <t>TransformerReactivePower</t>
+  </si>
+  <si>
+    <t>TransformerCurrent</t>
+  </si>
+  <si>
+    <t>GeneratorActivePower</t>
+  </si>
+  <si>
+    <t>GeneratorReactivePower</t>
+  </si>
+  <si>
+    <t>:Parametr</t>
+  </si>
+  <si>
+    <t>NetworkElementData</t>
+  </si>
+  <si>
+    <t>GeneratorData</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ControlParametr</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>"type of object"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +325,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3FD83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -274,11 +501,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +589,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,6 +637,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3FD83"/>
+      <color rgb="FFCCFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -621,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,12 +935,24 @@
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.21875" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" customWidth="1"/>
+    <col min="29" max="29" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -661,17 +969,56 @@
         <v>30</v>
       </c>
       <c r="J1" s="15"/>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -695,16 +1042,46 @@
       </c>
       <c r="J2" s="15"/>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -721,17 +1098,47 @@
         <v>25</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -754,17 +1161,35 @@
         <v>16</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="N4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -781,15 +1206,29 @@
         <v>25</v>
       </c>
       <c r="J5" s="15"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -812,15 +1251,26 @@
         <v>24</v>
       </c>
       <c r="J6" s="15"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="O6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -837,12 +1287,23 @@
         <v>27</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="O7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -862,12 +1323,23 @@
         <v>13</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="O8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -886,10 +1358,16 @@
       <c r="J9" s="15"/>
       <c r="N9" s="4"/>
       <c r="O9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -906,8 +1384,17 @@
         <v>19</v>
       </c>
       <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y10" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -924,8 +1411,17 @@
         <v>20</v>
       </c>
       <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -942,8 +1438,14 @@
         <v>21</v>
       </c>
       <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -960,8 +1462,14 @@
         <v>22</v>
       </c>
       <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -978,8 +1486,14 @@
         <v>23</v>
       </c>
       <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -996,8 +1510,17 @@
         <v>15</v>
       </c>
       <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="X15" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1010,6 +1533,12 @@
       </c>
       <c r="F16" s="2"/>
       <c r="J16" s="15"/>
+      <c r="X16" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="42" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>

--- a/подсистема обработки ТИ из ОИК/Описание.xlsx
+++ b/подсистема обработки ТИ из ОИК/Описание.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="136">
   <si>
     <t>Address</t>
   </si>
@@ -274,13 +274,166 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Напряжение</t>
+  </si>
+  <si>
+    <t>Весовой коэффициент</t>
+  </si>
+  <si>
+    <t>Номинальная мощность</t>
+  </si>
+  <si>
+    <t>35:110</t>
+  </si>
+  <si>
+    <t>110:220</t>
+  </si>
+  <si>
+    <t>500:1500</t>
+  </si>
+  <si>
+    <t>220:330</t>
+  </si>
+  <si>
+    <t>330:500</t>
+  </si>
+  <si>
+    <t>50:100</t>
+  </si>
+  <si>
+    <t>100:200</t>
+  </si>
+  <si>
+    <t>200:300</t>
+  </si>
+  <si>
+    <t>300:400</t>
+  </si>
+  <si>
+    <t>400:500</t>
+  </si>
+  <si>
+    <t>500:600</t>
+  </si>
+  <si>
+    <t>600:700</t>
+  </si>
+  <si>
+    <t>700:800</t>
+  </si>
+  <si>
+    <t>800:1200</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Остальное Иркутской ЭС </t>
+  </si>
+  <si>
+    <t>Бодайбинский энергорайон</t>
+  </si>
+  <si>
+    <t>Тулунско-Зиминский энергорайон</t>
+  </si>
+  <si>
+    <t>Иркутско-Черемховский энергорайон</t>
+  </si>
+  <si>
+    <t>Усть-Илимский энергорайон</t>
+  </si>
+  <si>
+    <t>Братский энергорайон</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергорайон БАМа </t>
+  </si>
+  <si>
+    <t>Остальное Красноярской части энергосистемы Красноярского края и Республики Тыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ванкорская ГТЭС   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ванкорский Энергорайон    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богучанский АЗ    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богучанская ГЭС     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУСАЛ Красноярск    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЭЦ РУСАЛ Ачинск    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярская ТЭЦ-2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Северный энергорайон   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярская ГРЭС-2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назаровская ГРЭС     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берёзовская ГРЭС     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярская ГЭС 220 кВ     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярская ГЭС 500 кВ     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярская ТЭЦ-1     </t>
+  </si>
+  <si>
+    <t>Тяговые подстанции 110 кВ</t>
+  </si>
+  <si>
+    <t>Тяговые подстанции 220 кВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Западный энергорайон    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восточный энергорайон    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Центральный энергорайон    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итатско-Шарыповский район </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФСК, РСК  </t>
+  </si>
+  <si>
+    <t>60401-60405</t>
+  </si>
+  <si>
+    <t>60504-60534</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +505,23 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -527,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +797,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,9 +1139,21 @@
     <col min="29" max="29" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -969,56 +1170,90 @@
         <v>30</v>
       </c>
       <c r="J1" s="15"/>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="46" t="s">
+      <c r="AB1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1065,10 +1300,10 @@
       <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AC2" s="1" t="s">
@@ -1080,8 +1315,47 @@
       <c r="AE2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI2" s="51">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="AJ2" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="51">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AM2" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="AO2" s="48">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="3">
+        <f t="shared" ref="AP2:AP10" si="0">(AO2/250)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="3">
+        <f>AR2*3/500</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AU2" s="53">
+        <v>60490</v>
+      </c>
+      <c r="AV2" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX2" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1098,19 +1372,19 @@
         <v>25</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="34" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -1122,10 +1396,10 @@
       <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -1137,8 +1411,47 @@
       <c r="AE3" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI3" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="AM3" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="AO3" s="48">
+        <v>100</v>
+      </c>
+      <c r="AP3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="3">
+        <f>AR3*3/500</f>
+        <v>0.06</v>
+      </c>
+      <c r="AU3" s="53">
+        <v>60405</v>
+      </c>
+      <c r="AV3" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX3" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1161,35 +1474,77 @@
         <v>16</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="35" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="52">
+        <v>0.67</v>
+      </c>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM4" s="52">
+        <v>0.67</v>
+      </c>
+      <c r="AO4" s="48">
+        <v>200</v>
+      </c>
+      <c r="AP4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>14</v>
+      </c>
+      <c r="AS4" s="3">
+        <f t="shared" ref="AS4:AS13" si="1">AR4*3/500</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AU4" s="53">
+        <v>60404</v>
+      </c>
+      <c r="AV4" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AX4" s="47">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>60208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1209,26 +1564,68 @@
       <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="36" t="s">
         <v>36</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="X5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI5" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="48">
+        <v>300</v>
+      </c>
+      <c r="AP5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>20</v>
+      </c>
+      <c r="AS5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="AU5" s="53">
+        <v>60403</v>
+      </c>
+      <c r="AV5" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX5" s="47">
+        <v>3</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1260,17 +1657,59 @@
       <c r="Q6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Y6" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6" s="52">
+        <v>1.33</v>
+      </c>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" s="52">
+        <v>1.33</v>
+      </c>
+      <c r="AO6" s="48">
+        <v>400</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>35</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="AU6" s="53">
+        <v>60402</v>
+      </c>
+      <c r="AV6" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="47">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1296,14 +1735,56 @@
       <c r="Q7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="40" t="s">
+      <c r="X7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="52">
+        <v>1.67</v>
+      </c>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM7" s="52">
+        <v>1.67</v>
+      </c>
+      <c r="AO7" s="48">
+        <v>500</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>55</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="AU7" s="53">
+        <v>60401</v>
+      </c>
+      <c r="AV7" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="47">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1323,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="8" t="s">
@@ -1332,14 +1813,52 @@
       <c r="Q8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="40" t="s">
+      <c r="X8" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI8" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM8" s="52">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="48">
+        <v>600</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>110</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="53">
+        <v>60208</v>
+      </c>
+      <c r="AV8" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX8" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1360,14 +1879,47 @@
       <c r="O9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="X9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ9" s="52">
+        <v>2.33</v>
+      </c>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AO9" s="48">
+        <v>700</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>220</v>
+      </c>
+      <c r="AS9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="AU9" s="53">
+        <v>70400</v>
+      </c>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX9" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1387,14 +1939,49 @@
       <c r="O10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="X10" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI10" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="52">
+        <v>2.67</v>
+      </c>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AO10" s="48">
+        <v>800</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>330</v>
+      </c>
+      <c r="AS10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="AU10" s="53">
+        <v>60590</v>
+      </c>
+      <c r="AV10" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX10" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1414,14 +2001,49 @@
       <c r="O11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="X11" s="40" t="s">
+      <c r="X11" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI11" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="52">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AO11" s="48">
+        <v>900</v>
+      </c>
+      <c r="AP11" s="3">
+        <f>(AO11/250)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>400</v>
+      </c>
+      <c r="AS11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="AU11" s="53">
+        <v>60536</v>
+      </c>
+      <c r="AV11" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX11" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1438,14 +2060,33 @@
         <v>21</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="X12" s="40" t="s">
+      <c r="X12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AR12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AU12" s="53">
+        <v>60535</v>
+      </c>
+      <c r="AV12" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX12" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1462,14 +2103,33 @@
         <v>22</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="X13" s="40" t="s">
+      <c r="X13" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="Y13" s="40" t="s">
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AR13" s="3">
+        <v>750</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AU13" s="53">
+        <v>60534</v>
+      </c>
+      <c r="AV13" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1486,14 +2146,26 @@
         <v>23</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="X14" s="41" t="s">
+      <c r="X14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" s="40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AU14" s="53">
+        <v>60533</v>
+      </c>
+      <c r="AV14" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1510,17 +2182,29 @@
         <v>15</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="X15" s="41" t="s">
+      <c r="X15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="41" t="s">
+      <c r="Y15" s="40" t="s">
         <v>52</v>
       </c>
       <c r="AG15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AU15" s="53">
+        <v>60531</v>
+      </c>
+      <c r="AV15" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AX15" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1533,14 +2217,26 @@
       </c>
       <c r="F16" s="2"/>
       <c r="J16" s="15"/>
-      <c r="X16" s="42" t="s">
+      <c r="X16" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="42" t="s">
+      <c r="Y16" s="41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU16" s="53">
+        <v>60528</v>
+      </c>
+      <c r="AV16" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX16" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1551,14 +2247,51 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU17" s="53">
+        <v>60527</v>
+      </c>
+      <c r="AV17" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX17" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU18" s="53">
+        <v>60526</v>
+      </c>
+      <c r="AV18" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AU19" s="53">
+        <v>60525</v>
+      </c>
+      <c r="AV19" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
@@ -1601,8 +2334,20 @@
       <c r="N20" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU20" s="53">
+        <v>60524</v>
+      </c>
+      <c r="AV20" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX20" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1625,8 +2370,20 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU21" s="53">
+        <v>60523</v>
+      </c>
+      <c r="AV21" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX21" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1649,8 +2406,20 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU22" s="53">
+        <v>60522</v>
+      </c>
+      <c r="AV22" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX22" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1673,8 +2442,20 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU23" s="53">
+        <v>60521</v>
+      </c>
+      <c r="AV23" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX23" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1697,8 +2478,20 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU24" s="53">
+        <v>60517</v>
+      </c>
+      <c r="AV24" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX24" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1721,8 +2514,20 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU25" s="53">
+        <v>60516</v>
+      </c>
+      <c r="AV25" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1745,8 +2550,20 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU26" s="53">
+        <v>60515</v>
+      </c>
+      <c r="AV26" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1769,8 +2586,20 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU27" s="53">
+        <v>60513</v>
+      </c>
+      <c r="AV27" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX27" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1793,8 +2622,20 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU28" s="53">
+        <v>60512</v>
+      </c>
+      <c r="AV28" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -1817,8 +2658,20 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU29" s="53">
+        <v>60511</v>
+      </c>
+      <c r="AV29" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AX29" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1841,8 +2694,20 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU30" s="53">
+        <v>60504</v>
+      </c>
+      <c r="AV30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AX30" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -1865,8 +2730,20 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AU31" s="53">
+        <v>60501</v>
+      </c>
+      <c r="AV31" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX31" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>12</v>
       </c>
@@ -1975,21 +2852,21 @@
       <c r="N36" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
